--- a/statistics/HistoricalDistanceData/historical_distance/Q60519428-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519428-en.xlsx
@@ -31,51 +31,51 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
     <t>Presidential Contest Tightens as Campaigns Move Into Eight-Week Home Stretch</t>
   </si>
   <si>
+    <t>Colorado President: general election Polls</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Polls 2020-11-02 (smaller states)</t>
+  </si>
+  <si>
     <t>Colorado Voting Information</t>
   </si>
   <si>
     <t>A new poll in Colorado shows Democrats poised for big wins in the 2020 election. Can you trust the numbers?</t>
   </si>
   <si>
-    <t>Polls 2020-11-02 (smaller states)</t>
-  </si>
-  <si>
-    <t>Colorado President: general election Polls</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
     <t>Extensive New Battleground Polling Shows Biden Gaining Ground</t>
   </si>
   <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
+    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
   </si>
   <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
+    <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-09-09T10:00:38UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
+    <t>2018-06-06T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-11-02T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-11-01T17:50:07UTC</t>
   </si>
   <si>
-    <t>2020-11-02T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-06-06T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2020-07-27T00:00:00UTC</t>
   </si>
   <si>
@@ -85,34 +85,34 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
     <t>https://morningconsult.com/2020/09/09/trump-biden-race-tightens-2020-polling/</t>
   </si>
   <si>
+    <t>https://projects.fivethirtyeight.com/polls/president-general/colorado/</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.swayable.com/polls/2020-11-02-small.html</t>
+  </si>
+  <si>
     <t>https://www.vote411.org/colorado</t>
   </si>
   <si>
     <t>https://coloradosun.com/2020/11/01/new-poll-colorado-biden-trump-hickenlooper-gardner/</t>
   </si>
   <si>
-    <t>https://www.swayable.com/polls/2020-11-02-small.html</t>
-  </si>
-  <si>
-    <t>https://projects.fivethirtyeight.com/polls/president-general/colorado/</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
     <t>https://morningconsult.com/form/july-presidential-battleground-state-polling/</t>
   </si>
   <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
   <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -647,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -664,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
